--- a/IntegrationTest/EA01_TOP_結合試験項目書.xlsx
+++ b/IntegrationTest/EA01_TOP_結合試験項目書.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jumpei_konishi\Desktop\3系IISチェック環境\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14880" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -501,7 +506,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
@@ -1111,6 +1116,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1850,7 +1858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H9:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
@@ -4453,7 +4461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
@@ -5165,8 +5173,8 @@
       <c r="AE17" s="88"/>
       <c r="AF17" s="88"/>
       <c r="AG17" s="89"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="97"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="91"/>
       <c r="AJ17" s="2"/>
     </row>
     <row r="18" spans="1:36">
@@ -5327,7 +5335,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
